--- a/PRODUTOS/Bebidas/Bebidas - Refrigerantes.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Refrigerantes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Zero 200ml</t>
+          <t>Refrigerante Soda Antarctica Zero 2l Limonada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0937291-cd28-470c-aae0-378eef98d301.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f18cbb7-6568-453a-809e-70a5ee444195.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891991001359</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Pet 200ml</t>
+          <t>Refrigerante Soda Zero Antarctica Lata 350ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c44d9fc-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d6a310d-356e-4cbc-b9b6-7614f8c37c03.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kit Refrigerante Coca-cola + Fanta Guaraná Leve Mais E Pague Menos 2lt</t>
+          <t>Refrigerante Guaraná Antarctica Lata 350ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 18,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc6da6de-df74-4259-9060-76f03cc5e9fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9dcda06-66f7-46cd-b10b-95da32ca0ab1.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Zero Açúcar 2l</t>
+          <t>Refrigerante Soda Antarctica Limonada Lata 350ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f5c53b9-2129-45c8-9125-66f9fcc9f3be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff426ee4-e8a6-4d7c-ac84-d926996bf0fb.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891991000833</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola 2lt</t>
+          <t>Refrigerante Soda Limonada Antarctica 2lt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf6c66d1-1c80-4463-ac78-54007b5705ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abba8c8a-f50b-4d10-b352-28466b8bf5ed.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891991001359</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica 200ml</t>
+          <t>Refrigerante Guaraná Zero Antarctica 2lt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0aa23c0-2f22-4c7c-b558-4feaca627ade.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec109abf-8f34-4106-8534-fdd136d7f38d.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891991014861</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kit Refrigerante Coca-cola + Fanta Laranja 2 Litros</t>
+          <t>Refrigerante Guaraná Antarctica Zero 600ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d865c972-02fc-44c6-8230-5d6bda95a07c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee31cea-9659-4c70-a3ff-1c5be6c43628.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891991014861</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antárctica Zero 200ml</t>
+          <t>Refrigerante Pepsi Cola Lata 350ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4168b70-5e7c-4efd-abf9-4244888ae6b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f49d9f49-cc70-4c92-a2f7-91b6b2db7831.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Mini Lata 220ml</t>
+          <t>Refrigerante Sukita Lata 350 Ml Uva</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f672744-a32f-4c2b-bbca-54761325e105.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fa9160a-25ff-4a6d-8dca-db77eb1e38ac.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Zero Lata 220ml</t>
+          <t>Refrigerante It Guarana 2l</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff648425-a046-492c-911f-39bf95e2937c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2dc0ca1-37a9-42f8-bf88-2b4adcbcd79a.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898377662425</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Lata 350ml</t>
+          <t>Refrigerante It Cola 2l</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daef0602-2f45-49e1-a3ff-329bad6835a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82b62dd2-d2d0-48f7-a176-b3574c9116a3.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898377662401</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola 1,5l Sem Açucar</t>
+          <t>Refrigerante It Laranja 2l</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 10,79</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daae6be1-8c10-4f9c-a6b7-478ad32e17b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6bcf517-e180-432a-bf08-cc3e22b1a5a7.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898377662487</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Zero Lata 350ml</t>
+          <t>Refrigerante Guaraná Cruzeiro 2lt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd919621-7750-4d16-9e02-194e27460365.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ae0d385-8476-4ad1-963c-40199d25da9e.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896437900012</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Refrigerante Kuat Guaraná 2lt</t>
+          <t>Agua Tonica Classic 1,5l Citrus Pet</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e84b92a1-f30d-4498-a686-b54df460b3e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca7f8445-a104-4116-87ef-ceb7ea28bee9.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896437901057</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola 1,5lt</t>
+          <t>Refrigerante Coca Cola Lata 310ml</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 10,79</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc7e4ee2-91a3-4fc4-9c59-ef246364b0e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7aa94f2b-fcf3-4a59-8f19-37fcee66a6f9.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7894900011159</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Refrigerante Pepsi Cola Zero Açúcar Pet 2lt</t>
+          <t>Refrigerante Fanta Guarana 350ml</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7ed9d37-0aed-4ed9-bdd5-aa82067d8715.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b8a5f82-40ad-4320-9616-85b7a524887c.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7894900093001</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Zero 1lt</t>
+          <t>Refrigerante Guaraná Antarctica 1lt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64e0a713-9d05-473d-8c3d-525e6bbbec83.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f921a3ec-1ba2-4374-90bc-834a6b5f7081.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891991014861</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Zero Antarctica 2lt</t>
+          <t>Refrigerante Fanta Guarana Lt 220ml</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec109abf-8f34-4106-8534-fdd136d7f38d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc1f3fd3-1e34-421f-a5ac-e71af6c4a8c5.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7894900093025</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola Zero 600ml</t>
+          <t>Kit Refr 2 Guarana Antarctica 1lt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4c7f34e-ced9-4f6a-9494-200e6d5e38a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0952314-2af7-49be-89dd-a4587c22c7a0.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891991008655</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola 600ml</t>
+          <t>Refrigerante Guaraná Antarctica 200ml</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8c036df-7191-44e1-a002-f5c070b814f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0aa23c0-2f22-4c7c-b558-4feaca627ade.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891991008655</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica 2lt</t>
+          <t>Refrigerante Fanta Lata 350ml Laranja Zero</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac415d29-1b9f-461e-b644-2d315a84f1ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce4ba344-be0f-40c3-b16a-d6c6c8b6d5fc.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7894900150018</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Refrigerante Sukita Laranja 2lt</t>
+          <t>Refrigerante Pepsi Cola Zero Lata 350ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec8da2b2-64ef-4a30-9aab-e1408d11be0b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18bb40e9-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta 2l Laranja</t>
+          <t>Refrigerante Tutti Frutti Zero Itubaína Lata 350ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c636580e-1f2f-43e6-b0e0-db1d9338a092.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e63fdb9d-7770-4eca-9ade-3080ab3fc424.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Refrigerante Sprite 2l Tradicional</t>
+          <t>Refrigerante Itubaína Lata 350ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb9f0431-94a5-45b1-8a79-309cbec8a06d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5466594-73a4-4d2a-815a-ef2ce70f20c3.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta 2l Uva</t>
+          <t>Água Tônica Antarctica Zero Açúcar Garrafa 1lt</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fd88562-68a6-4561-88b5-7fd0e9907db0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79875eb3-d58e-4e6b-a4b9-8a1b274506f8.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891991298537</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Refrigerante H2oh Com Limão 1,5lt</t>
+          <t>Refrigerante Guaraná Antárctica Zero 200ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 9,39</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9727f60-00df-42e6-9a2d-92f6c154a6f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4168b70-5e7c-4efd-abf9-4244888ae6b5.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891991014861</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1298,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Água Tônica Schweppes Lata 350ml</t>
+          <t>Refrigerante Itubaina 500ml</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1173,7 +1308,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8c9a8b5-e3ae-42e9-86c6-bf1e8bf2d4d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f7aa8f8-d77f-429b-9865-c51a16da60fb.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896052606191</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Refrigerante H2oh 500ml Limoneto</t>
+          <t>Refrigerante It Guaraná Zero 2lt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7791a101-a876-40c2-8af8-4817045b219d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12ac9df8-8adc-4212-ae42-accd6c3259d9.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7897395031329</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Refrigerante Pepsi Cola 200ml</t>
+          <t>Refrigerante Coca Cola Lata 310ml Light</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b15b11b1-c2b9-4181-81d5-cf1704ad9157.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85a9213b-28fe-4055-b920-c4eda7db2332.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7894900011159</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Água Tônica Schweppes Sem Açúcar 350ml</t>
+          <t>Suco Integral Villa Piva 1l Tangerina</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2ae637c-7026-4f0a-a91f-71c6cfe1ac1f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7999751b-1e52-4f71-bc47-9bfc9f3ee634.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898965716080</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Água Tônica Antarctica Zero Açúcar Lata 350ml</t>
+          <t>Refrigerante Tuttibaina 2 Litros</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0888914-c76e-4e31-88b4-ccdc722e56f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/495524f4-a685-4e78-911e-7209a761c0ea.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Refrigerante H2oh 1,5l Limoneto</t>
+          <t>Agua De Coco Dona Elza 1l</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 9,39</t>
+          <t>R$ 14,49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6668040b-f637-4408-8539-7090c73c3bba.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896263503067</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica Zero Lata 350ml</t>
+          <t>Agua De Coco Dona Elza 200ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcd12797-704c-4f6f-b44d-061cfef47df2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896263503067</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Refrigerante Soda Zero Antarctica Lata 350ml</t>
+          <t>Refrigerante Poty Lt 350ml Guarana</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d6a310d-356e-4cbc-b9b6-7614f8c37c03.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e780379-938a-4ce7-bd7f-de8cf79678d0.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896263500196</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Refrigerante Sukita Tubaina 2l</t>
+          <t>Refrigerante Poty Lt 350ml Laranja</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec5aed3f-567b-4eb4-8ee1-2094dd5c4de2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91032d3f-1346-496a-877d-4b98a8ff7e82.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896052607129</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Refrigerante Tuttibaina 2 Litros</t>
+          <t>Refrigerante Poty Lt 350ml Uva</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/495524f4-a685-4e78-911e-7209a761c0ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d90c0a54-efb7-4a86-80b0-aada0da66385.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896263501469</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Refrigerante Sprite 2l Sem Açucar</t>
+          <t>Refrigerante Poty Pet 2l Citrus</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acd8eb20-d8b0-440a-bb27-4b05d2a01762.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5c262eb-76ee-40b6-84ef-0773fb5f659b.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896263502541</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1650,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Refrigerante Sukita 2l Uva</t>
+          <t>Refrigerante Poty Pet 2l Guarana</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1470,7 +1660,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa610685-3ca9-49ad-95f4-85b71be3d28b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2353b05d-f155-4c1f-bfe1-f384b51a8b37.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896263500011</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Refrigerante Sprite Lemon 1,5lt</t>
+          <t>Refrigerante Poty Pet 2l Guarana Tubaina</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,39</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a179d5b-c678-4032-984b-2944d9486a61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56c3d69e-375f-49e6-8232-4da9ccd7791c.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896263500011</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1714,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Água Tônica Antarctica Lata 350ml</t>
+          <t>Refrigerante Roller Lata 350ml Cola</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1524,7 +1724,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4a36392-5cba-41b1-ab2a-837e1a0e2371.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f93cdd9f-34a4-4a97-a049-04c0443b7a72.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896263500202</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Refrigerante Pepsi 2,5lt</t>
+          <t>Refrigerante Roller Lata 350ml Zero</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9b7e42a-fad3-4c6a-9b44-15be9e0a6ea7.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Refrigerante Citrus Original Schweppes Garrafa 1,5lt</t>
+          <t>Refrigerante Roller Pet 2l Cola</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 9,59</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26f8f7d3-3cb5-4cf3-a42e-90fcbb17e59a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc775bdb-f397-4778-980f-29c3ddd766c9.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896263500141</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta Laranja 200ml</t>
+          <t>Refrigerante Roller Pet 2l Cola Wave</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 8,38</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c604f24c-b146-4f9b-bd09-9388e5a98e10.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a135868-4f50-4d09-9891-aecca9b7bada.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896263500141</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-cola 3l</t>
+          <t>Refrigerante Roller Pet 200ml Cola</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 16,49</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d126b4fd-5dfb-42a5-93a0-ec24c07949c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c86c626b-9aa5-4207-873c-acb5414c612f.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896263503920</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica 1lt</t>
+          <t>Refrigerante Zero Açucar Fys Lt 350ml Guaraná</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f921a3ec-1ba2-4374-90bc-834a6b5f7081.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/106309b5-748b-4c57-a2e6-317eca956bd6.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896052608140</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Refrigerante Soda Antarctica Zero 2l Limonada</t>
+          <t>Refrigerante Fanta Mistério Lata 350ml Chucky Punch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f18cbb7-6568-453a-809e-70a5ee444195.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f47fc4b1-4d4c-4e76-b478-9fa7e1c04a75.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7894900095203</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Refrigerante H2oh Limão 500ml</t>
+          <t>Suco Mupy Saq 200ml Maracuja</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6405608-397f-45af-94b9-d6165af7faca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ddb375b-e9fd-4e8e-9a0a-6e7fc1518cf3.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896293806022</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Lata 310ml</t>
+          <t>Refrigerante Fanta Lata 350ml Guarana Zero</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7aa94f2b-fcf3-4a59-8f19-37fcee66a6f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b380c17a-ec19-4f4e-aae5-5bc6e087f66d.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7894900093001</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Água Tônica Antarctica Zero Açúcar Garrafa 1lt</t>
+          <t>Refrigerante Guaraná Antarctica Zero Lata 350ml</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79875eb3-d58e-4e6b-a4b9-8a1b274506f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcd12797-704c-4f6f-b44d-061cfef47df2.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1784,7 +2034,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Refrigerante Sprite Lemon 500ml</t>
+          <t>Água Tônica Schweppes Sem Açúcar 350ml</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1794,7 +2044,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa0ae44a-06f3-41b5-b838-4be2b0ce3ad1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2ae637c-7026-4f0a-a91f-71c6cfe1ac1f.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896052607228</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Água Tônica Fys Lata 350ml</t>
+          <t>Refrigerante Kuat Guaraná Lata 220ml</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 3,39</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2319fa68-c09f-459c-beaf-cf8d65b047ed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c58b252-c611-4a81-b2b5-d1b34e79bac1.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7894900910391</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica Zero 600ml</t>
+          <t>Água Tônica Antarctica Lata 350ml</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee31cea-9659-4c70-a3ff-1c5be6c43628.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4a36392-5cba-41b1-ab2a-837e1a0e2371.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896052607228</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2130,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Refrigerante Pepsi Cola Zero Lata 350ml</t>
+          <t>Água Tônica Schweppes Lata 350ml</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1875,7 +2140,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18bb40e9-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8c9a8b5-e3ae-42e9-86c6-bf1e8bf2d4d6.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7894900360011</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Refrigerante Sprite 200ml</t>
+          <t>Refrigerante Fys Lt 350ml Guarana</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2018ab76-4b02-4954-b273-6eb568aca5b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b50385d4-d13b-40db-ba60-add2fa7450ae.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896052607044</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica Lata 350ml</t>
+          <t>Refrigerante H2oh 500ml Limoneto</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9dcda06-66f7-46cd-b10b-95da32ca0ab1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7791a101-a876-40c2-8af8-4817045b219d.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7892840812850</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta Guarana 2l</t>
+          <t>Refrigerante Coca-cola Zero Lata 350ml</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/deb835be-5c23-409d-b25c-8da2fedb239b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd919621-7750-4d16-9e02-194e27460365.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Refrigerante Coca Cola Lata 310ml Light</t>
+          <t>Refrigerante Fys Lt 350ml Laranja</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85a9213b-28fe-4055-b920-c4eda7db2332.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/033c5adc-fee3-4008-a4bd-87febf273bf5.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896052607129</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Refrigerante Schweppes Lata 350ml Citrus</t>
+          <t>Refrigerante Fys Lata 350ml Limão</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfa836ca-0821-429d-b3f2-d0fcd93ae021.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a936318b-e855-486c-9570-80a664f5d70b.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Refrigerante Itubaína Lata 350ml</t>
+          <t>Refrigerante Coca-cola Lata 350ml</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5466594-73a4-4d2a-815a-ef2ce70f20c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daef0602-2f45-49e1-a3ff-329bad6835a7.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kit Refrigerante Coca Cola 2 Litros + Refrigerante Sprite 2 Litros</t>
+          <t>Refrigerante Schweppes Citrus Sem Açúcar Pet 1,5lt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6e5abe0-33ea-45d9-9f8e-a3464c2bbd84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/040d77b7-6f96-40e6-b894-8b87de7161dc.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7894900321753</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Refrigerante Sukita Uva 200ml</t>
+          <t>Água Tônica Fys Lata 350ml</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 3,39</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5713aeb-1d37-4389-aaef-fbe55bc98747.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2319fa68-c09f-459c-beaf-cf8d65b047ed.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896052607228</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kit Refr 2 Guarana Antarctica 1lt</t>
+          <t>Refrigerante Fanta Laranja Lata 350ml</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0952314-2af7-49be-89dd-a4587c22c7a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e00d4fba-90b2-4739-8de0-6166de71b218.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7894900030013</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Refrigerante Schweppes Citrus Sem Açúcar Pet 1,5lt</t>
+          <t>Refrigerante Sprite Lata 350ml Tradicional</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/040d77b7-6f96-40e6-b894-8b87de7161dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30d31852-985d-404a-811e-2a7aab4450f4.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7899914200612</t>
         </is>
       </c>
     </row>
@@ -2162,1610 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Refrigerante Tutti Frutti Zero Itubaína Lata 350ml</t>
+          <t>Refrigerante Fanta Lata 350ml Uva</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e63fdb9d-7770-4eca-9ade-3080ab3fc424.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Refrigerante It Guarana 2l</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2dc0ca1-37a9-42f8-bf88-2b4adcbcd79a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Refrigerante Guaraná Antarctica 600ml</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 5,39</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd6d7b7b-d818-4a23-8cd5-d4f9b71e1238.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Guarana Lt 220ml</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 2,89</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc1f3fd3-1e34-421f-a5ac-e71af6c4a8c5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Refrigerante It Guaraná Zero 2lt</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12ac9df8-8adc-4212-ae42-accd6c3259d9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Uva Lata 220ml</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb6d8ca5-2051-41d8-9c0d-3d26a9c02247.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Refrigerante Pepsi Cola Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f49d9f49-cc70-4c92-a2f7-91b6b2db7831.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Refrigerante It Laranja 2l</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6bcf517-e180-432a-bf08-cc3e22b1a5a7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Refrigerante Soda Limonada Antarctica 2lt</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abba8c8a-f50b-4d10-b352-28466b8bf5ed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Refrigerante Guaraná Cruzeiro 2lt</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ae0d385-8476-4ad1-963c-40199d25da9e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Refrigerante Ginger Ale Schweppes Lata 220ml</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed17e85e-935f-47d5-aeab-a8cd165fd693.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Refrigerante Sprite Lata 350ml Tradicional</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30d31852-985d-404a-811e-2a7aab4450f4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Refrigerante Guarana Antarctica 3lt</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d84559e0-8f8f-4b33-8e9c-a1bffc90dfc7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Mistério Lata 350ml Chucky Punch</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f47fc4b1-4d4c-4e76-b478-9fa7e1c04a75.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta 600ml Laranja</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ca9ecf9-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Refrigerante It Com Limão 2lt</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/525ec275-a820-4a17-af3e-35d202f22651.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Lata 350ml Uva</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b545f2c-b507-4518-90ae-5a5c253d5b36.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Refrigerante Mini Fanta Laranja Lata 220ml</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f11ff681-102b-4552-a111-b315d493540e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Lata 350ml Laranja Zero</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce4ba344-be0f-40c3-b16a-d6c6c8b6d5fc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Laranja Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e00d4fba-90b2-4739-8de0-6166de71b218.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Refrigerante It Cola 2l</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82b62dd2-d2d0-48f7-a176-b3574c9116a3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Refrigerante Soda Antarctica Limonada Lata 350ml</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>R$ 3,69</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff426ee4-e8a6-4d7c-ac84-d926996bf0fb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Água Tônica Classic 1,5lt</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ac8deb4-ee3a-4cf7-bfba-29cf31bf5e69.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Refrigerante Kuat Guaraná Lata 220ml</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c58b252-c611-4a81-b2b5-d1b34e79bac1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Refrigerante Fys Lata 350ml Limão</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a936318b-e855-486c-9570-80a664f5d70b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Refrigerante Fys Lt 350ml Laranja</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/033c5adc-fee3-4008-a4bd-87febf273bf5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Agua Tonica Classic 1,5l Citrus Pet</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca7f8445-a104-4116-87ef-ceb7ea28bee9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Água Tônica Dillar`s Classic Limão 1,5lt</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f126bcfb-9868-4abf-b188-e1b4fd2b153c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Refrigerante Fys Lt 350ml Guarana</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b50385d4-d13b-40db-ba60-add2fa7450ae.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Guarana 350ml</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b8a5f82-40ad-4320-9616-85b7a524887c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Refrigerante Sukita 350ml Laranja</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bb766c-2b3a-4818-9c6b-fb1f5c0e7d82.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 1l Tangerina</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7999751b-1e52-4f71-bc47-9bfc9f3ee634.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Citrus</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5c262eb-76ee-40b6-84ef-0773fb5f659b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Refrigerante Galeguinha 2l Limao</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4bebe13-20d1-454c-9b2f-d63ffe793460.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Refrigerante Itubaina 500ml</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f7aa8f8-d77f-429b-9865-c51a16da60fb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Limao</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74ab67a7-20ad-4fb9-b5a1-1258c42fced1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Refrigerante Zero Açucar Fys Lt 350ml Guaraná</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/106309b5-748b-4c57-a2e6-317eca956bd6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Refrigerante Zero Açucar Fys Lt 350ml Limão Siciliano</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 3,39</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b05ad42-e693-443c-a142-2c01accfbe15.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Guarana Tubaina</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56c3d69e-375f-49e6-8232-4da9ccd7791c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Citrus</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b6bc0e1-5d95-45bb-b5ff-2576beef4757.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Guarana</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2353b05d-f155-4c1f-bfe1-f384b51a8b37.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Agua De Coco Dona Elza 1l</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 14,49</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Agua De Coco Dona Elza 200ml</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Refrigerante Roller Pet 200ml Cola</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 2,39</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c86c626b-9aa5-4207-873c-acb5414c612f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Laranja</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18fab39c-52e7-4895-bdcb-b4d13683318e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Refrigerante Roller Pet 2l Cola</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc775bdb-f397-4778-980f-29c3ddd766c9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Refrigerante Roller Lata 350ml Cola</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f93cdd9f-34a4-4a97-a049-04c0443b7a72.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Refrigerante Fanta Lata 350ml Guarana Zero</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b380c17a-ec19-4f4e-aae5-5bc6e087f66d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Pet 2l Uva</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc74b133-96d4-4474-b3ac-9bec99d1c0ad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Refrigerante Sukita Lata 350 Ml Uva</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fa9160a-25ff-4a6d-8dca-db77eb1e38ac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Refrigerante Melon Soda 350ml Melão</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ef18138-90cf-44a2-b214-8c907f74495e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Zero</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/037579dd-5a8d-48ff-b6e5-def3a69e5cdb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Espumante Infantil Spunch Liga Da Justiça 660ml Morango</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cebeb7ac-f6f2-4c32-a0e6-445a4f4a1c85.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Refrigerante De Melancia Watermelon 350ml</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbcc8d19-475d-4949-8008-d9ab88f850b9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Guarana</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e780379-938a-4ce7-bd7f-de8cf79678d0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Refrigerante Roller Pet 2l Cola Wave</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 8,38</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a135868-4f50-4d09-9891-aecca9b7bada.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Laranja</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91032d3f-1346-496a-877d-4b98a8ff7e82.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Limao</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/993a7e1e-c454-4250-b6d8-73dbc93103c2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Refrigerante Poty Lt 350ml Uva</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d90c0a54-efb7-4a86-80b0-aada0da66385.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Refrigerantes</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Refrigerante Roller Lata 350ml Zero</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7894900050011</t>
         </is>
       </c>
     </row>
